--- a/期末專案/rawdata/真理大學.xlsx
+++ b/期末專案/rawdata/真理大學.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,76 @@
           <t>採計科目</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>國文</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>數A</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>數B</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>社會</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>自然</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>英聽</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>數甲</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>物理</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>化學</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>生物</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>歷史</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>地理</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>公民</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +524,21 @@
           <t>國文(1.50)、英文(1.50)、歷史(1.25)</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -471,6 +556,21 @@
           <t>國文(2.00)、英文(1.50)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +588,21 @@
           <t>國文(2.00)、英文(1.50)、歷史(1.50)</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -505,6 +620,21 @@
           <t>國文(2.00)、英文(2.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,6 +652,21 @@
           <t>國文(2.00)、歷史(1.50)、地理(2.00)</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +684,21 @@
           <t>國文(2.00)、英文(1.00)、公民(1.75)</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -556,6 +716,21 @@
           <t>國文(1.75)、社會(2.00)、公民(1.75)</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -573,6 +748,26 @@
           <t>國文(2.00)、英文(1.00)、數B(1.00)、歷史(2.00)</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -590,6 +785,21 @@
           <t>英文(2.00)、社會(2.00)、地理(1.75)</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -607,6 +817,26 @@
           <t>國文(2.00)、英文(1.00)、歷史(2.00)、地理(2.00)</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -624,6 +854,21 @@
           <t>國文(1.75)、社會(1.75)、歷史(2.00)</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -641,6 +886,26 @@
           <t>國文(2.00)、英文(1.50)、社會(1.00)、歷史(1.50)</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -658,6 +923,21 @@
           <t>國文(1.00)、英文(1.00)、地理(2.00)</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -675,6 +955,21 @@
           <t>國文(1.25)、社會(1.50)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -692,6 +987,21 @@
           <t>國文(2.00)、社會(1.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -709,6 +1019,26 @@
           <t>國文(2.00)、英文(2.00)、數B(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,6 +1056,21 @@
           <t>國文(2.00)、社會(1.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -743,6 +1088,21 @@
           <t>國文(1.50)、社會(1.00)、地理(2.00)</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -760,6 +1120,21 @@
           <t>國文(2.00)、英文(1.50)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -777,6 +1152,21 @@
           <t>國文(1.50)、歷史(1.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -794,6 +1184,21 @@
           <t>國文(2.00)、社會(1.75)、地理(2.00)</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -811,6 +1216,21 @@
           <t>國文(2.00)、社會(1.50)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -828,6 +1248,21 @@
           <t>國文(1.50)、社會(1.00)、歷史(2.00)</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -845,6 +1280,21 @@
           <t>國文(2.00)、英文(1.50)、歷史(2.00)</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -862,6 +1312,21 @@
           <t>國文(2.00)、歷史(1.50)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -879,6 +1344,21 @@
           <t>國文(1.50)、歷史(2.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -896,6 +1376,21 @@
           <t>國文(2.00)、社會(1.50)、歷史(1.25)</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -911,6 +1406,21 @@
       <c r="C29" t="inlineStr">
         <is>
           <t>國文(2.00)、英文(1.00)、歷史(2.00)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>2.00</t>
         </is>
       </c>
     </row>
